--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2348E14D-989E-4992-BD43-D5AA661AD1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -415,11 +416,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未產出前:空白
-產出後:"Y"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>狀況代號，授權狀態</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1831,44 +1827,6 @@
     <t>X(54)</t>
   </si>
   <si>
-    <t>CdCode:Sex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AmlCheckItem
-0.非可疑名單/已完成名單確認
-1.需審查/確認
-2.為凍結名單/未確定名單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AuthCode
-1期款2火險</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:PostDepCode
-P：存簿G：劃撥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:RelationCode
-00本人
-01夫
-02妻
-03父
-04母
-05子
-06女
-07兄
-08弟
-09姊
-10妹
-11姪子
-99其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DeleteDate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1881,15 +1839,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AuthApplCode
-1.申請
-2.終止
-3.郵局終止
-4.誤終止
-9.暫停授權(DeleteDate &gt; 0時，顯示用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暫停授權日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1921,8 +1870,44 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AuthErrorCode
-空白:未授權('':再次授權)
+    <t>CdCode.AuthApplCode
+1:申請
+2:終止
+3:郵局終止
+4:誤終止
+9:暫停授權(DeleteDate &gt; 0時，顯示用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.PostDepCode
+P:存簿
+G:劃撥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AuthCode
+1:期款
+2:火險</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.StampCode
+1:帳號不符
+2:戶名不符
+3:身分證號不符
+4:印鑑不符
+9:其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白:未產出前
+Y:產出後</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AuthErrorCode
+空:再次授權
+空白:未授權
 00:成功
 03:已終止代繳
 06:凍結警示戶
@@ -1943,19 +1928,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:StampCode
-1帳號不符
-2戶名不符
-3身分證號不符
-4印鑑不符
-9其他</t>
+    <t>CdCode.RelationCode
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.Sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -2383,46 +2387,46 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2513,6 +2517,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2548,6 +2569,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2723,22 +2761,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="7"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2747,10 +2785,10 @@
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -2760,7 +2798,7 @@
       <c r="A2" s="53"/>
       <c r="B2" s="54"/>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -2769,7 +2807,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="49.5">
+    <row r="3" spans="1:7" ht="48.6">
       <c r="A3" s="52" t="s">
         <v>8</v>
       </c>
@@ -2878,7 +2916,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>55</v>
@@ -2888,12 +2926,12 @@
       </c>
       <c r="G10" s="50"/>
     </row>
-    <row r="11" spans="1:7" ht="99">
+    <row r="11" spans="1:7" ht="97.2">
       <c r="A11" s="46">
         <v>2</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>54</v>
@@ -2905,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2916,7 +2954,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>39</v>
@@ -2926,7 +2964,7 @@
       </c>
       <c r="G12" s="50"/>
     </row>
-    <row r="13" spans="1:7" ht="33">
+    <row r="13" spans="1:7" ht="48.6">
       <c r="A13" s="46">
         <v>4</v>
       </c>
@@ -2943,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2954,7 +2992,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="44" t="s">
         <v>19</v>
@@ -2964,7 +3002,7 @@
       </c>
       <c r="G14" s="50"/>
     </row>
-    <row r="15" spans="1:7" ht="33">
+    <row r="15" spans="1:7" ht="48.6">
       <c r="A15" s="46">
         <v>6</v>
       </c>
@@ -2972,7 +3010,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>19</v>
@@ -2981,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2989,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>71</v>
@@ -3010,7 +3048,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="44" t="s">
         <v>19</v>
@@ -3092,7 +3130,7 @@
       </c>
       <c r="G21" s="50"/>
     </row>
-    <row r="22" spans="1:7" ht="99">
+    <row r="22" spans="1:7" ht="97.2">
       <c r="A22" s="46">
         <v>13</v>
       </c>
@@ -3100,7 +3138,7 @@
         <v>94</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>19</v>
@@ -3109,10 +3147,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="33">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32.4">
       <c r="A23" s="46">
         <v>14</v>
       </c>
@@ -3120,7 +3158,7 @@
         <v>83</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>19</v>
@@ -3129,18 +3167,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="313.5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="324">
       <c r="A24" s="46">
         <v>15</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>19</v>
@@ -3149,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3215,10 +3253,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>55</v>
@@ -3228,7 +3266,7 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" ht="231">
+    <row r="29" spans="1:7" ht="226.8">
       <c r="A29" s="46">
         <v>20</v>
       </c>
@@ -3245,7 +3283,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3271,10 +3309,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="45" t="s">
         <v>115</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>116</v>
       </c>
       <c r="D31" s="44" t="s">
         <v>19</v>
@@ -3319,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="66">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="64.8">
       <c r="A34" s="46">
         <v>25</v>
       </c>
@@ -3339,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3347,10 +3385,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>19</v>
@@ -3386,7 +3424,7 @@
         <v>21</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="48" t="s">
         <v>53</v>
@@ -3420,7 +3458,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>53</v>
@@ -3446,7 +3484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3454,11 +3492,11 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3491,10 +3529,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3513,7 +3551,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3524,7 +3562,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3602,15 +3640,15 @@
         <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>56</v>
@@ -3618,35 +3656,35 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3657,52 +3695,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="28.875" customWidth="1"/>
-    <col min="10" max="10" width="28.625" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3716,34 +3754,34 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10" ht="49.5">
+    <row r="4" spans="1:10" ht="48.6">
       <c r="A4" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3751,18 +3789,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3781,29 +3819,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I6" s="32">
         <v>846</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3811,59 +3849,59 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="34" t="s">
-        <v>149</v>
-      </c>
       <c r="H7" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="32.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31.8">
       <c r="A8" s="30">
         <v>4</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="32" t="s">
-        <v>154</v>
-      </c>
       <c r="H8" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3871,29 +3909,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="35" t="s">
+      <c r="H9" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>159</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3901,55 +3939,55 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="F10" s="56"/>
+      <c r="G10" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="36" t="s">
+      <c r="H10" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="99">
+    </row>
+    <row r="11" spans="1:10" ht="97.2">
       <c r="A11" s="30">
         <v>7</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="30">
         <v>26</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="G11" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>170</v>
-      </c>
       <c r="H11" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" s="32">
         <v>1</v>
@@ -3963,137 +4001,137 @@
         <v>8</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="30">
         <v>27</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="32" t="s">
+      <c r="H12" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="60">
+        <v>9</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="64">
-        <v>9</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="64" t="s">
+      <c r="D13" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="E13" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="60" t="s">
+      <c r="H13" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="60"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="64"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="62" t="s">
+      <c r="F14" s="56"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="J14" s="61"/>
-    </row>
-    <row r="15" spans="1:10" ht="32.25">
+      <c r="J14" s="63"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
         <v>10</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="E15" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="F15" s="56"/>
+      <c r="G15" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="32" t="s">
-        <v>184</v>
-      </c>
       <c r="H15" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="33">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32.4">
       <c r="A16" s="30">
         <v>11</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="E16" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="F16" s="56"/>
+      <c r="G16" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="32" t="s">
-        <v>189</v>
-      </c>
       <c r="H16" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4101,29 +4139,29 @@
         <v>12</v>
       </c>
       <c r="B17" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="F17" s="56"/>
+      <c r="G17" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="32" t="s">
-        <v>194</v>
-      </c>
       <c r="H17" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4131,29 +4169,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="30">
         <v>74</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="32" t="s">
-        <v>194</v>
-      </c>
       <c r="H18" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4161,29 +4199,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="62"/>
+      <c r="E19" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="56"/>
       <c r="G19" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4224,7 +4262,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -4236,34 +4274,34 @@
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:10" ht="49.5">
+    <row r="24" spans="1:10" ht="48.6">
       <c r="A24" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="E24" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="F24" s="64"/>
+      <c r="G24" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="29" t="s">
+      <c r="H24" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="I24" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="J24" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4271,18 +4309,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="39">
         <v>1</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" s="58"/>
+        <v>137</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="61"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4301,29 +4339,29 @@
         <v>2</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="42">
         <v>43135</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="F26" s="58"/>
+        <v>141</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="61"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I26" s="41">
         <v>846</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4331,59 +4369,59 @@
         <v>3</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" s="42">
         <v>43228</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="F27" s="58"/>
+        <v>146</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="61"/>
       <c r="G27" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="32.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="31.8">
       <c r="A28" s="39">
         <v>4</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="42">
         <v>43359</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="58"/>
+        <v>151</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="61"/>
       <c r="G28" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4391,168 +4429,168 @@
         <v>5</v>
       </c>
       <c r="B29" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="65">
+        <v>6</v>
+      </c>
+      <c r="B30" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="59">
-        <v>6</v>
-      </c>
-      <c r="B30" s="58" t="s">
+      <c r="C30" s="65">
+        <v>20</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="59">
-        <v>20</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="58" t="s">
+      <c r="F30" s="61"/>
+      <c r="G30" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="56" t="s">
+      <c r="H30" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" s="66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="65"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="H30" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="J30" s="56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="59"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
         <v>7</v>
       </c>
       <c r="B32" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="D32" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="58" t="s">
+      <c r="F32" s="61"/>
+      <c r="G32" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="41" t="s">
+      <c r="H32" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="65">
+        <v>8</v>
+      </c>
+      <c r="B33" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="H32" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="J32" s="41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="59">
-        <v>8</v>
-      </c>
-      <c r="B33" s="58" t="s">
+      <c r="C33" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="D33" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" s="40" t="s">
+      <c r="F33" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="G33" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="J33" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="65"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="G33" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="H33" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="J33" s="56" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="59"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
         <v>9</v>
       </c>
       <c r="B35" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="D35" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4571,18 +4609,18 @@
         <v>10</v>
       </c>
       <c r="B36" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>224</v>
-      </c>
       <c r="D36" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="58"/>
+        <v>162</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" s="61"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4601,46 +4639,58 @@
         <v>11</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4653,33 +4703,21 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
